--- a/php_libs/soporte/Herramientas/archivo_modificado.xlsx
+++ b/php_libs/soporte/Herramientas/archivo_modificado.xlsx
@@ -5102,14 +5102,11 @@
   </sheetPr>
   <dimension ref="A1:AH297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="O1">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="7" max="7" width="83.85546875" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
     <row r="2" spans="1:34" customHeight="1" ht="30">
       <c r="A2" s="1" t="s">

--- a/php_libs/soporte/Herramientas/archivo_modificado.xlsx
+++ b/php_libs/soporte/Herramientas/archivo_modificado.xlsx
@@ -5102,11 +5102,14 @@
   </sheetPr>
   <dimension ref="A1:AH297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="O1">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="7" max="7" width="83.85546875" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:34" customHeight="1" ht="30">
       <c r="A2" s="1" t="s">
